--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen.zhang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A0033F-5EF7-114A-80AA-12D2AE1E8E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8568B0-DCD4-4F0F-AE02-FC7B517D12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{8F0CC697-B677-45A1-A03E-12653B08657D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,138 +36,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
-  <si>
-    <t>phage</t>
-  </si>
-  <si>
-    <t>gene</t>
-  </si>
-  <si>
-    <t>plasmid</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>edit_name</t>
   </si>
   <si>
-    <t>genome_position</t>
-  </si>
-  <si>
-    <t>wt_nt</t>
-  </si>
-  <si>
-    <t>edited_nt</t>
-  </si>
-  <si>
-    <t>L_inside</t>
-  </si>
-  <si>
-    <t>R_inside</t>
-  </si>
-  <si>
-    <t>L_outside</t>
-  </si>
-  <si>
-    <t>R_outside</t>
-  </si>
-  <si>
-    <t>rep_1</t>
-  </si>
-  <si>
-    <t>rep_2</t>
-  </si>
-  <si>
-    <t>rep_3</t>
-  </si>
-  <si>
-    <t>rep_4</t>
-  </si>
-  <si>
-    <t>rep_5</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>pSBK164</t>
-  </si>
-  <si>
-    <t>pSBK160</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CTTTCGCAGT</t>
-  </si>
-  <si>
-    <t>AATCCCATGA</t>
-  </si>
-  <si>
-    <t>TGTAAGTTCCGCAATAACGT</t>
-  </si>
-  <si>
-    <t>CGATGTGCGCCAGCGGAGTC</t>
-  </si>
-  <si>
-    <t>lambda L tail</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>L tail protein</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>CGCAATAACG</t>
-  </si>
-  <si>
-    <t>GTTGTAAGTT</t>
-  </si>
-  <si>
-    <t>TATGACCAGCCAACGTCCGA</t>
-  </si>
-  <si>
-    <t>ACTTTCGCAGTAAATCCCAT</t>
-  </si>
-  <si>
-    <t>L tail dRT</t>
-  </si>
-  <si>
-    <t>msKDC-01-44</t>
-  </si>
-  <si>
-    <t>msKDC-01-45</t>
-  </si>
-  <si>
-    <t>msKDC-01-46</t>
-  </si>
-  <si>
-    <t>msKDC-01-47</t>
-  </si>
-  <si>
-    <t>msKDC-01-48</t>
-  </si>
-  <si>
-    <t>msKDC-01-49</t>
-  </si>
-  <si>
-    <t>msKDC-01-50</t>
+    <t>run_id</t>
+  </si>
+  <si>
+    <t>rpoB</t>
+  </si>
+  <si>
+    <t>msCF_5_35</t>
+  </si>
+  <si>
+    <t>msCF_5_36</t>
+  </si>
+  <si>
+    <t>msCF_5_37</t>
+  </si>
+  <si>
+    <t>msCF_5_38</t>
+  </si>
+  <si>
+    <t>msCF_5_39</t>
+  </si>
+  <si>
+    <t>msCF_5_40</t>
+  </si>
+  <si>
+    <t>msCF_5_41</t>
+  </si>
+  <si>
+    <t>msCF_5_42</t>
+  </si>
+  <si>
+    <t>msCF_5_43</t>
+  </si>
+  <si>
+    <t>msCF_5_44</t>
+  </si>
+  <si>
+    <t>msCF_5_45</t>
+  </si>
+  <si>
+    <t>msCF_5_46</t>
   </si>
 </sst>
 </file>
@@ -173,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -186,9 +102,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -200,12 +116,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -215,7 +146,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,200 +462,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79934C2-20DB-E449-AFAB-CAA669F7B54D}">
-  <dimension ref="A1:Q23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6E6236-43F8-4DA8-90EA-4163369B5506}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2">
-        <v>14084</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14126</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P4" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A0033F-5EF7-114A-80AA-12D2AE1E8E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8114023-685B-3B4E-AD62-97DD0916B0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>phage</t>
   </si>
@@ -146,32 +146,41 @@
     <t>L tail dRT</t>
   </si>
   <si>
-    <t>msKDC-01-44</t>
-  </si>
-  <si>
-    <t>msKDC-01-45</t>
-  </si>
-  <si>
-    <t>msKDC-01-46</t>
-  </si>
-  <si>
-    <t>msKDC-01-47</t>
-  </si>
-  <si>
-    <t>msKDC-01-48</t>
-  </si>
-  <si>
-    <t>msKDC-01-49</t>
-  </si>
-  <si>
-    <t>msKDC-01-50</t>
+    <t>msAGK_01_79</t>
+  </si>
+  <si>
+    <t>msAGK_01_80</t>
+  </si>
+  <si>
+    <t>msAGK_01_81</t>
+  </si>
+  <si>
+    <t>msAGK_01_82</t>
+  </si>
+  <si>
+    <t>msAGK_01_83</t>
+  </si>
+  <si>
+    <t>msAGK_01_84</t>
+  </si>
+  <si>
+    <t>msAGK_01_85</t>
+  </si>
+  <si>
+    <t>msAGK_01_86</t>
+  </si>
+  <si>
+    <t>msAGK_01_87</t>
+  </si>
+  <si>
+    <t>msAGK_01_88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,6 +198,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -212,10 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,7 +549,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,14 +651,20 @@
       <c r="L2" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>39</v>
+      <c r="M2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -682,17 +704,20 @@
       <c r="L3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>43</v>
+      <c r="O3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8114023-685B-3B4E-AD62-97DD0916B0E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88682B24-5778-D54F-A8EB-F4BE75E9FEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="36160" yWindow="1480" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,34 +146,34 @@
     <t>L tail dRT</t>
   </si>
   <si>
-    <t>msAGK_01_79</t>
-  </si>
-  <si>
-    <t>msAGK_01_80</t>
-  </si>
-  <si>
-    <t>msAGK_01_81</t>
-  </si>
-  <si>
-    <t>msAGK_01_82</t>
-  </si>
-  <si>
-    <t>msAGK_01_83</t>
-  </si>
-  <si>
-    <t>msAGK_01_84</t>
-  </si>
-  <si>
-    <t>msAGK_01_85</t>
-  </si>
-  <si>
-    <t>msAGK_01_86</t>
-  </si>
-  <si>
-    <t>msAGK_01_87</t>
-  </si>
-  <si>
-    <t>msAGK_01_88</t>
+    <t>msAGK-01-84</t>
+  </si>
+  <si>
+    <t>msAGK-01-83</t>
+  </si>
+  <si>
+    <t>msAGK-01-85</t>
+  </si>
+  <si>
+    <t>msAGK-01-82</t>
+  </si>
+  <si>
+    <t>msAGK-01-86</t>
+  </si>
+  <si>
+    <t>msAGK-01-81</t>
+  </si>
+  <si>
+    <t>msAGK-01-87</t>
+  </si>
+  <si>
+    <t>msAGK-01-80</t>
+  </si>
+  <si>
+    <t>msAGK-01-88</t>
+  </si>
+  <si>
+    <t>msAGK-01-79</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -652,19 +652,19 @@
         <v>35</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -705,19 +705,19 @@
         <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>40</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88682B24-5778-D54F-A8EB-F4BE75E9FEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A43F2AB-E824-294E-B830-E530CF81FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="1480" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="36160" yWindow="1100" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -137,9 +137,6 @@
     <t>GTTGTAAGTT</t>
   </si>
   <si>
-    <t>TATGACCAGCCAACGTCCGA</t>
-  </si>
-  <si>
     <t>ACTTTCGCAGTAAATCCCAT</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>msAGK-01-79</t>
+  </si>
+  <si>
+    <t>CAACGTCCGATATCACGAAG</t>
   </si>
 </sst>
 </file>
@@ -549,11 +549,12 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
@@ -646,25 +647,25 @@
         <v>32</v>
       </c>
       <c r="K2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -681,7 +682,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="2">
         <v>14126</v>
@@ -705,19 +706,19 @@
         <v>26</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -749,5 +750,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A43F2AB-E824-294E-B830-E530CF81FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA2E2E2-271C-364B-8AAE-BF6E43F96804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36160" yWindow="1100" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="940" yWindow="700" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>phage</t>
   </si>
@@ -92,30 +92,6 @@
     <t>pSBK164</t>
   </si>
   <si>
-    <t>pSBK160</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>CTTTCGCAGT</t>
-  </si>
-  <si>
-    <t>AATCCCATGA</t>
-  </si>
-  <si>
-    <t>TGTAAGTTCCGCAATAACGT</t>
-  </si>
-  <si>
-    <t>CGATGTGCGCCAGCGGAGTC</t>
-  </si>
-  <si>
     <t>lambda L tail</t>
   </si>
   <si>
@@ -140,40 +116,10 @@
     <t>ACTTTCGCAGTAAATCCCAT</t>
   </si>
   <si>
-    <t>L tail dRT</t>
-  </si>
-  <si>
-    <t>msAGK-01-84</t>
-  </si>
-  <si>
-    <t>msAGK-01-83</t>
-  </si>
-  <si>
-    <t>msAGK-01-85</t>
-  </si>
-  <si>
-    <t>msAGK-01-82</t>
-  </si>
-  <si>
-    <t>msAGK-01-86</t>
-  </si>
-  <si>
-    <t>msAGK-01-81</t>
-  </si>
-  <si>
-    <t>msAGK-01-87</t>
-  </si>
-  <si>
-    <t>msAGK-01-80</t>
-  </si>
-  <si>
-    <t>msAGK-01-88</t>
-  </si>
-  <si>
-    <t>msAGK-01-79</t>
-  </si>
-  <si>
     <t>CAACGTCCGATATCACGAAG</t>
+  </si>
+  <si>
+    <t>msMRM-04-155</t>
   </si>
 </sst>
 </file>
@@ -549,7 +495,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,106 +566,58 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>14084</v>
       </c>
       <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14126</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="P4" s="1"/>

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA2E2E2-271C-364B-8AAE-BF6E43F96804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F65C9E-EA63-0D49-934C-0DEF65A1BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="700" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="35420" yWindow="700" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>phage</t>
   </si>
@@ -119,7 +119,10 @@
     <t>CAACGTCCGATATCACGAAG</t>
   </si>
   <si>
-    <t>msMRM-04-155</t>
+    <t>msCF-9-22</t>
+  </si>
+  <si>
+    <t>msCF-9-23</t>
   </si>
 </sst>
 </file>
@@ -601,7 +604,9 @@
       <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA2E2E2-271C-364B-8AAE-BF6E43F96804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8537482E-A7D2-6248-8F71-2F0342C5EFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="700" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="34180" yWindow="920" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>phage</t>
   </si>
@@ -119,7 +119,7 @@
     <t>CAACGTCCGATATCACGAAG</t>
   </si>
   <si>
-    <t>msMRM-04-155</t>
+    <t>msCF-9-22</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,9 @@
       <c r="M2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8537482E-A7D2-6248-8F71-2F0342C5EFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90B2AA-2E6D-A849-A20A-66067CCF2A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34180" yWindow="920" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>phage</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>msCF-9-22</t>
+  </si>
+  <si>
+    <t>msCF-9-23</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,7 +605,7 @@
         <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB90B2AA-2E6D-A849-A20A-66067CCF2A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D148F1-D33F-3847-9536-1805A37CAE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34180" yWindow="920" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="34180" yWindow="900" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="97">
   <si>
     <t>phage</t>
   </si>
@@ -86,50 +89,251 @@
     <t>rep_5</t>
   </si>
   <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>pSBK164</t>
-  </si>
-  <si>
-    <t>lambda L tail</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>L tail protein</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t>CGCAATAACG</t>
-  </si>
-  <si>
-    <t>GTTGTAAGTT</t>
-  </si>
-  <si>
-    <t>ACTTTCGCAGTAAATCCCAT</t>
-  </si>
-  <si>
-    <t>CAACGTCCGATATCACGAAG</t>
-  </si>
-  <si>
-    <t>msCF-9-22</t>
-  </si>
-  <si>
-    <t>msCF-9-23</t>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>B strain</t>
+  </si>
+  <si>
+    <t>K strain</t>
+  </si>
+  <si>
+    <t>gene 3.5</t>
+  </si>
+  <si>
+    <t>ORF022</t>
+  </si>
+  <si>
+    <t>ORF022_TGA_TAA</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>gene3.5_TAA_TGA</t>
+  </si>
+  <si>
+    <t>ACAGATCGGG</t>
+  </si>
+  <si>
+    <t>TGTTATTAAT</t>
+  </si>
+  <si>
+    <t>TTATTTACCTATATACAGAA</t>
+  </si>
+  <si>
+    <t>TCCGGATCCTACGAAGCCAT</t>
+  </si>
+  <si>
+    <t>GACCGTGGAT</t>
+  </si>
+  <si>
+    <t>ATTAATTGAA</t>
+  </si>
+  <si>
+    <t>TTGCCCTTCGTTCGACCTTA</t>
+  </si>
+  <si>
+    <t>TTCGCATTGGAGGTCAAATA</t>
+  </si>
+  <si>
+    <t>msMRM-8-188</t>
+  </si>
+  <si>
+    <t>msMRM-8-179</t>
+  </si>
+  <si>
+    <t>msMRM-8-180</t>
+  </si>
+  <si>
+    <t>msMRM-8-181</t>
+  </si>
+  <si>
+    <t>msMRM-8-182</t>
+  </si>
+  <si>
+    <t>msMRM-8-183</t>
+  </si>
+  <si>
+    <t>msMRM-8-184</t>
+  </si>
+  <si>
+    <t>msMRM-8-185</t>
+  </si>
+  <si>
+    <t>msMRM-8-186</t>
+  </si>
+  <si>
+    <t>msMRM-8-169</t>
+  </si>
+  <si>
+    <t>msMRM-8-170</t>
+  </si>
+  <si>
+    <t>msMRM-8-171</t>
+  </si>
+  <si>
+    <t>msMRM-8-172</t>
+  </si>
+  <si>
+    <t>msMRM-8-173</t>
+  </si>
+  <si>
+    <t>msMRM-8-174</t>
+  </si>
+  <si>
+    <t>msMRM-8-175</t>
+  </si>
+  <si>
+    <t>msMRM-8-176</t>
+  </si>
+  <si>
+    <t>msMRM-8-177</t>
+  </si>
+  <si>
+    <t>msMRM-8-178</t>
+  </si>
+  <si>
+    <t>msMRM-8-199</t>
+  </si>
+  <si>
+    <t>msMRM-8-200</t>
+  </si>
+  <si>
+    <t>msMRM-8-201</t>
+  </si>
+  <si>
+    <t>msMRM-8-202</t>
+  </si>
+  <si>
+    <t>msMRM-8-203</t>
+  </si>
+  <si>
+    <t>msMRM-8-204</t>
+  </si>
+  <si>
+    <t>msMRM-8-205</t>
+  </si>
+  <si>
+    <t>msMRM-8-206</t>
+  </si>
+  <si>
+    <t>msMRM-8-207</t>
+  </si>
+  <si>
+    <t>msMRM-8-208</t>
+  </si>
+  <si>
+    <t>msMRM-8-189</t>
+  </si>
+  <si>
+    <t>msMRM-8-190</t>
+  </si>
+  <si>
+    <t>msMRM-8-191</t>
+  </si>
+  <si>
+    <t>msMRM-8-192</t>
+  </si>
+  <si>
+    <t>msMRM-8-193</t>
+  </si>
+  <si>
+    <t>msMRM-8-194</t>
+  </si>
+  <si>
+    <t>msMRM-8-195</t>
+  </si>
+  <si>
+    <t>msMRM-8-196</t>
+  </si>
+  <si>
+    <t>msMRM-8-197</t>
+  </si>
+  <si>
+    <t>msMRM-8-198</t>
+  </si>
+  <si>
+    <t>msMRM-8-219</t>
+  </si>
+  <si>
+    <t>msMRM-8-220</t>
+  </si>
+  <si>
+    <t>msMRM-8-221</t>
+  </si>
+  <si>
+    <t>msMRM-8-222</t>
+  </si>
+  <si>
+    <t>msMRM-8-223</t>
+  </si>
+  <si>
+    <t>msMRM-8-224</t>
+  </si>
+  <si>
+    <t>msMRM-8-225</t>
+  </si>
+  <si>
+    <t>msMRM-8-226</t>
+  </si>
+  <si>
+    <t>msMRM-8-227</t>
+  </si>
+  <si>
+    <t>msMRM-8-209</t>
+  </si>
+  <si>
+    <t>msMRM-8-210</t>
+  </si>
+  <si>
+    <t>msMRM-8-211</t>
+  </si>
+  <si>
+    <t>msMRM-8-212</t>
+  </si>
+  <si>
+    <t>msMRM-8-213</t>
+  </si>
+  <si>
+    <t>msMRM-8-214</t>
+  </si>
+  <si>
+    <t>msMRM-8-216</t>
+  </si>
+  <si>
+    <t>msMRM-8-215</t>
+  </si>
+  <si>
+    <t>msMRM-8-217</t>
+  </si>
+  <si>
+    <t>msMRM-8-218</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,27 +348,47 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,18 +396,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{5AF0C786-32D5-E94C-86E9-A86CACB99DB8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,7 +764,7 @@
   <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,92 +832,952 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="4">
+        <v>27182</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="F2">
-        <v>14084</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" t="s">
+        <v>38</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="3" t="s">
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G14" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s">
+        <v>35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P4" s="1"/>
+      <c r="E15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="5">
+        <v>11160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD40947B-F6B1-3C44-ABC7-A0482A05DD32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3971A763-1221-C643-8940-75CB620DE895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
@@ -157,121 +157,7 @@
     <t>TCGCGATATTCAACGTCTTA</t>
   </si>
   <si>
-    <t>msPRR-01-02</t>
-  </si>
-  <si>
-    <t>msPRR-01-03</t>
-  </si>
-  <si>
-    <t>msPRR-01-04</t>
-  </si>
-  <si>
-    <t>msPRR-01-05</t>
-  </si>
-  <si>
-    <t>msPRR-01-06</t>
-  </si>
-  <si>
-    <t>msPRR-01-07</t>
-  </si>
-  <si>
-    <t>msPRR-01-08</t>
-  </si>
-  <si>
-    <t>msPRR-01-09</t>
-  </si>
-  <si>
-    <t>msPRR-01-10</t>
-  </si>
-  <si>
-    <t>msPRR-01-11</t>
-  </si>
-  <si>
-    <t>msPRR-01-12</t>
-  </si>
-  <si>
-    <t>msPRR-01-13</t>
-  </si>
-  <si>
-    <t>msPRR-01-14</t>
-  </si>
-  <si>
-    <t>msPRR-01-15</t>
-  </si>
-  <si>
-    <t>msPRR-01-16</t>
-  </si>
-  <si>
-    <t>msPRR-01-17</t>
-  </si>
-  <si>
-    <t>msPRR-01-18</t>
-  </si>
-  <si>
-    <t>msPRR-01-19</t>
-  </si>
-  <si>
-    <t>msPRR-01-20</t>
-  </si>
-  <si>
-    <t>msPRR-01-21</t>
-  </si>
-  <si>
-    <t>msPRR-01-22</t>
-  </si>
-  <si>
-    <t>msPRR-01-23</t>
-  </si>
-  <si>
-    <t>msPRR-01-24</t>
-  </si>
-  <si>
-    <t>msPRR-01-25</t>
-  </si>
-  <si>
-    <t>msPRR-01-26</t>
-  </si>
-  <si>
-    <t>msPRR-01-27</t>
-  </si>
-  <si>
-    <t>msPRR-01-28</t>
-  </si>
-  <si>
-    <t>msPRR-01-29</t>
-  </si>
-  <si>
-    <t>msPRR-01-30</t>
-  </si>
-  <si>
-    <t>msPRR-01-31</t>
-  </si>
-  <si>
-    <t>msPRR-01-32</t>
-  </si>
-  <si>
-    <t>msPRR-01-33</t>
-  </si>
-  <si>
-    <t>msPRR-01-34</t>
-  </si>
-  <si>
-    <t>msPRR-01-35</t>
-  </si>
-  <si>
-    <t>msPRR-01-36</t>
-  </si>
-  <si>
-    <t>msPRR-01-37</t>
-  </si>
-  <si>
-    <t>msPRR-01-38</t>
-  </si>
-  <si>
-    <t>msPRR-01-39</t>
-  </si>
-  <si>
-    <t>msPRR-01-40</t>
+    <t>msPRR_01_02</t>
   </si>
   <si>
     <t>M13</t>
@@ -304,36 +190,6 @@
     <t>TTCGCCCTTTGACGTTGGAG</t>
   </si>
   <si>
-    <t>msPRR-01-41</t>
-  </si>
-  <si>
-    <t>msPRR-01-42</t>
-  </si>
-  <si>
-    <t>msPRR-01-43</t>
-  </si>
-  <si>
-    <t>msPRR-01-44</t>
-  </si>
-  <si>
-    <t>msPRR-01-45</t>
-  </si>
-  <si>
-    <t>msPRR-01-46</t>
-  </si>
-  <si>
-    <t>msPRR-01-47</t>
-  </si>
-  <si>
-    <t>msPRR-01-48</t>
-  </si>
-  <si>
-    <t>msPRR-01-49</t>
-  </si>
-  <si>
-    <t>msPRR-01-50</t>
-  </si>
-  <si>
     <t>pSBK.190</t>
   </si>
   <si>
@@ -349,31 +205,175 @@
     <t>rep4_tc</t>
   </si>
   <si>
-    <t>msPRR-01-51</t>
-  </si>
-  <si>
-    <t>msPRR-01-52</t>
-  </si>
-  <si>
-    <t>msPRR-01-53</t>
-  </si>
-  <si>
-    <t>msPRR-01-186</t>
-  </si>
-  <si>
-    <t>msPRR-01-187</t>
-  </si>
-  <si>
-    <t>msPRR-01-188</t>
-  </si>
-  <si>
-    <t>msPRR-01-189</t>
-  </si>
-  <si>
-    <t>msPRR-01-190</t>
-  </si>
-  <si>
-    <t>msPRR-01-191</t>
+    <t>msPRR_01_04</t>
+  </si>
+  <si>
+    <t>msPRR_01_05</t>
+  </si>
+  <si>
+    <t>msPRR_01_06</t>
+  </si>
+  <si>
+    <t>msPRR_01_07</t>
+  </si>
+  <si>
+    <t>msPRR_01_08</t>
+  </si>
+  <si>
+    <t>msPRR_01_09</t>
+  </si>
+  <si>
+    <t>msPRR_01_10</t>
+  </si>
+  <si>
+    <t>msPRR_01_11</t>
+  </si>
+  <si>
+    <t>msPRR_01_12</t>
+  </si>
+  <si>
+    <t>msPRR_01_13</t>
+  </si>
+  <si>
+    <t>msPRR_01_14</t>
+  </si>
+  <si>
+    <t>msPRR_01_15</t>
+  </si>
+  <si>
+    <t>msPRR_01_16</t>
+  </si>
+  <si>
+    <t>msPRR_01_17</t>
+  </si>
+  <si>
+    <t>msPRR_01_18</t>
+  </si>
+  <si>
+    <t>msPRR_01_19</t>
+  </si>
+  <si>
+    <t>msPRR_01_20</t>
+  </si>
+  <si>
+    <t>msPRR_01_21</t>
+  </si>
+  <si>
+    <t>msPRR_01_22</t>
+  </si>
+  <si>
+    <t>msPRR_01_23</t>
+  </si>
+  <si>
+    <t>msPRR_01_24</t>
+  </si>
+  <si>
+    <t>msPRR_01_25</t>
+  </si>
+  <si>
+    <t>msPRR_01_26</t>
+  </si>
+  <si>
+    <t>msPRR_01_27</t>
+  </si>
+  <si>
+    <t>msPRR_01_28</t>
+  </si>
+  <si>
+    <t>msPRR_01_29</t>
+  </si>
+  <si>
+    <t>msPRR_01_30</t>
+  </si>
+  <si>
+    <t>msPRR_01_31</t>
+  </si>
+  <si>
+    <t>msPRR_01_32</t>
+  </si>
+  <si>
+    <t>msPRR_01_33</t>
+  </si>
+  <si>
+    <t>msPRR_01_34</t>
+  </si>
+  <si>
+    <t>msPRR_01_35</t>
+  </si>
+  <si>
+    <t>msPRR_01_36</t>
+  </si>
+  <si>
+    <t>msPRR_01_37</t>
+  </si>
+  <si>
+    <t>msPRR_01_38</t>
+  </si>
+  <si>
+    <t>msPRR_01_39</t>
+  </si>
+  <si>
+    <t>msPRR_01_40</t>
+  </si>
+  <si>
+    <t>msPRR_01_41</t>
+  </si>
+  <si>
+    <t>msPRR_01_42</t>
+  </si>
+  <si>
+    <t>msPRR_01_43</t>
+  </si>
+  <si>
+    <t>msPRR_01_44</t>
+  </si>
+  <si>
+    <t>msPRR_01_45</t>
+  </si>
+  <si>
+    <t>msPRR_01_46</t>
+  </si>
+  <si>
+    <t>msPRR_01_47</t>
+  </si>
+  <si>
+    <t>msPRR_01_48</t>
+  </si>
+  <si>
+    <t>msPRR_01_49</t>
+  </si>
+  <si>
+    <t>msPRR_01_50</t>
+  </si>
+  <si>
+    <t>msPRR_01_186</t>
+  </si>
+  <si>
+    <t>msPRR_01_187</t>
+  </si>
+  <si>
+    <t>msPRR_01_188</t>
+  </si>
+  <si>
+    <t>msPRR_01_189</t>
+  </si>
+  <si>
+    <t>msPRR_01_190</t>
+  </si>
+  <si>
+    <t>msPRR_01_191</t>
+  </si>
+  <si>
+    <t>msPRR_01_51</t>
+  </si>
+  <si>
+    <t>msPRR_01_52</t>
+  </si>
+  <si>
+    <t>msPRR_01_53</t>
+  </si>
+  <si>
+    <t>msPRR_01_03</t>
   </si>
 </sst>
 </file>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79934C2-20DB-E449-AFAB-CAA669F7B54D}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="215" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,13 +930,13 @@
         <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -977,19 +977,19 @@
         <v>39</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1030,19 +1030,19 @@
         <v>39</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -1083,19 +1083,19 @@
         <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -1136,19 +1136,19 @@
         <v>39</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="N6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -1189,19 +1189,19 @@
         <v>39</v>
       </c>
       <c r="M7" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -1242,19 +1242,19 @@
         <v>39</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="N8" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -1295,36 +1295,36 @@
         <v>39</v>
       </c>
       <c r="M9" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="F10">
         <v>5704</v>
@@ -1336,48 +1336,48 @@
         <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="L10" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="M10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="N10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F11">
         <v>5704</v>
@@ -1389,31 +1389,31 @@
         <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
@@ -1424,13 +1424,13 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F12" s="9">
         <v>11160</v>
@@ -1454,13 +1454,13 @@
         <v>28</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -1471,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="F13" s="9">
         <v>11160</v>
@@ -1501,13 +1501,13 @@
         <v>28</v>
       </c>
       <c r="M13" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1518,13 +1518,13 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="F14" s="9">
         <v>11160</v>
@@ -1548,13 +1548,13 @@
         <v>28</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.2">

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3971A763-1221-C643-8940-75CB620DE895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58A91E8-816C-034E-B85C-711F9E99F509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="33600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$34</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="177">
   <si>
     <t>phage</t>
   </si>
@@ -157,9 +160,6 @@
     <t>TCGCGATATTCAACGTCTTA</t>
   </si>
   <si>
-    <t>msPRR_01_02</t>
-  </si>
-  <si>
     <t>M13</t>
   </si>
   <si>
@@ -205,182 +205,377 @@
     <t>rep4_tc</t>
   </si>
   <si>
-    <t>msPRR_01_04</t>
-  </si>
-  <si>
-    <t>msPRR_01_05</t>
-  </si>
-  <si>
-    <t>msPRR_01_06</t>
-  </si>
-  <si>
-    <t>msPRR_01_07</t>
-  </si>
-  <si>
-    <t>msPRR_01_08</t>
-  </si>
-  <si>
-    <t>msPRR_01_09</t>
-  </si>
-  <si>
-    <t>msPRR_01_10</t>
-  </si>
-  <si>
-    <t>msPRR_01_11</t>
-  </si>
-  <si>
-    <t>msPRR_01_12</t>
-  </si>
-  <si>
-    <t>msPRR_01_13</t>
-  </si>
-  <si>
-    <t>msPRR_01_14</t>
-  </si>
-  <si>
-    <t>msPRR_01_15</t>
-  </si>
-  <si>
-    <t>msPRR_01_16</t>
-  </si>
-  <si>
-    <t>msPRR_01_17</t>
-  </si>
-  <si>
-    <t>msPRR_01_18</t>
-  </si>
-  <si>
-    <t>msPRR_01_19</t>
-  </si>
-  <si>
-    <t>msPRR_01_20</t>
-  </si>
-  <si>
-    <t>msPRR_01_21</t>
-  </si>
-  <si>
-    <t>msPRR_01_22</t>
-  </si>
-  <si>
-    <t>msPRR_01_23</t>
-  </si>
-  <si>
-    <t>msPRR_01_24</t>
-  </si>
-  <si>
-    <t>msPRR_01_25</t>
-  </si>
-  <si>
-    <t>msPRR_01_26</t>
-  </si>
-  <si>
-    <t>msPRR_01_27</t>
-  </si>
-  <si>
-    <t>msPRR_01_28</t>
-  </si>
-  <si>
-    <t>msPRR_01_29</t>
-  </si>
-  <si>
-    <t>msPRR_01_30</t>
-  </si>
-  <si>
-    <t>msPRR_01_31</t>
-  </si>
-  <si>
-    <t>msPRR_01_32</t>
-  </si>
-  <si>
-    <t>msPRR_01_33</t>
-  </si>
-  <si>
-    <t>msPRR_01_34</t>
-  </si>
-  <si>
-    <t>msPRR_01_35</t>
-  </si>
-  <si>
-    <t>msPRR_01_36</t>
-  </si>
-  <si>
-    <t>msPRR_01_37</t>
-  </si>
-  <si>
-    <t>msPRR_01_38</t>
-  </si>
-  <si>
-    <t>msPRR_01_39</t>
-  </si>
-  <si>
-    <t>msPRR_01_40</t>
-  </si>
-  <si>
-    <t>msPRR_01_41</t>
-  </si>
-  <si>
-    <t>msPRR_01_42</t>
-  </si>
-  <si>
-    <t>msPRR_01_43</t>
-  </si>
-  <si>
-    <t>msPRR_01_44</t>
-  </si>
-  <si>
-    <t>msPRR_01_45</t>
-  </si>
-  <si>
-    <t>msPRR_01_46</t>
-  </si>
-  <si>
-    <t>msPRR_01_47</t>
-  </si>
-  <si>
-    <t>msPRR_01_48</t>
-  </si>
-  <si>
-    <t>msPRR_01_49</t>
-  </si>
-  <si>
-    <t>msPRR_01_50</t>
-  </si>
-  <si>
-    <t>msPRR_01_186</t>
-  </si>
-  <si>
-    <t>msPRR_01_187</t>
-  </si>
-  <si>
-    <t>msPRR_01_188</t>
-  </si>
-  <si>
-    <t>msPRR_01_189</t>
-  </si>
-  <si>
-    <t>msPRR_01_190</t>
-  </si>
-  <si>
-    <t>msPRR_01_191</t>
-  </si>
-  <si>
-    <t>msPRR_01_51</t>
-  </si>
-  <si>
-    <t>msPRR_01_52</t>
-  </si>
-  <si>
-    <t>msPRR_01_53</t>
-  </si>
-  <si>
-    <t>msPRR_01_03</t>
+    <t>msDMP_01_01</t>
+  </si>
+  <si>
+    <t>msDMP_01_02</t>
+  </si>
+  <si>
+    <t>msDMP_01_03</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>bKDC009</t>
+  </si>
+  <si>
+    <t>msDMP_01_04</t>
+  </si>
+  <si>
+    <t>msDMP_01_05</t>
+  </si>
+  <si>
+    <t>msDMP_01_06</t>
+  </si>
+  <si>
+    <t>msDMP_01_07</t>
+  </si>
+  <si>
+    <t>msDMP_01_08</t>
+  </si>
+  <si>
+    <t>msDMP_01_09</t>
+  </si>
+  <si>
+    <t>msDMP_01_10</t>
+  </si>
+  <si>
+    <t>msDMP_01_11</t>
+  </si>
+  <si>
+    <t>msDMP_01_12</t>
+  </si>
+  <si>
+    <t>msDMP_01_13</t>
+  </si>
+  <si>
+    <t>msDMP_01_14</t>
+  </si>
+  <si>
+    <t>msDMP_01_15</t>
+  </si>
+  <si>
+    <t>msDMP_01_16</t>
+  </si>
+  <si>
+    <t>msDMP_01_17</t>
+  </si>
+  <si>
+    <t>msDMP_01_18</t>
+  </si>
+  <si>
+    <t>msDMP_01_19</t>
+  </si>
+  <si>
+    <t>msDMP_01_20</t>
+  </si>
+  <si>
+    <t>msDMP_01_21</t>
+  </si>
+  <si>
+    <t>msDMP_01_22</t>
+  </si>
+  <si>
+    <t>msDMP_01_23</t>
+  </si>
+  <si>
+    <t>msDMP_01_24</t>
+  </si>
+  <si>
+    <t>msDMP_01_25</t>
+  </si>
+  <si>
+    <t>msDMP_01_26</t>
+  </si>
+  <si>
+    <t>msDMP_01_27</t>
+  </si>
+  <si>
+    <t>msDMP_01_28</t>
+  </si>
+  <si>
+    <t>msDMP_01_29</t>
+  </si>
+  <si>
+    <t>msDMP_01_30</t>
+  </si>
+  <si>
+    <t>rep2_tc</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>pSBK.164</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>pSBK.145</t>
+  </si>
+  <si>
+    <t>lambda L tail</t>
+  </si>
+  <si>
+    <t>GTTGTAAGTT</t>
+  </si>
+  <si>
+    <t>CGCAATAACG</t>
+  </si>
+  <si>
+    <t>TATGACCAGCCAACGTCCGA</t>
+  </si>
+  <si>
+    <t>ACTTTCGCAGTAAATCCCAT</t>
+  </si>
+  <si>
+    <t>AATGATTTCA</t>
+  </si>
+  <si>
+    <t>AAATAGTAGC</t>
+  </si>
+  <si>
+    <t>CTCGTATTCTAAACCGTAAT</t>
+  </si>
+  <si>
+    <t>CTTAACTGGATATACGTTGG</t>
+  </si>
+  <si>
+    <t>pb3</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.135</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.136</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.137</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.138</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.139</t>
+  </si>
+  <si>
+    <t>pb3_TAA_TGA</t>
+  </si>
+  <si>
+    <t>msDMP_01_31</t>
+  </si>
+  <si>
+    <t>msDMP_01_32</t>
+  </si>
+  <si>
+    <t>msDMP_01_33</t>
+  </si>
+  <si>
+    <t>msDMP_01_34</t>
+  </si>
+  <si>
+    <t>msDMP_01_35</t>
+  </si>
+  <si>
+    <t>msDMP_01_36</t>
+  </si>
+  <si>
+    <t>msDMP_01_37</t>
+  </si>
+  <si>
+    <t>msDMP_01_38</t>
+  </si>
+  <si>
+    <t>msDMP_01_39</t>
+  </si>
+  <si>
+    <t>msDMP_01_40</t>
+  </si>
+  <si>
+    <t>msDMP_01_41</t>
+  </si>
+  <si>
+    <t>msDMP_01_42</t>
+  </si>
+  <si>
+    <t>msDMP_01_43</t>
+  </si>
+  <si>
+    <t>msDMP_01_44</t>
+  </si>
+  <si>
+    <t>msDMP_01_45</t>
+  </si>
+  <si>
+    <t>msDMP_01_46</t>
+  </si>
+  <si>
+    <t>msDMP_01_47</t>
+  </si>
+  <si>
+    <t>msDMP_01_48</t>
+  </si>
+  <si>
+    <t>msDMP_01_49</t>
+  </si>
+  <si>
+    <t>msDMP_01_50</t>
+  </si>
+  <si>
+    <t>msDMP_01_51</t>
+  </si>
+  <si>
+    <t>msDMP_01_52</t>
+  </si>
+  <si>
+    <t>msDMP_01_53</t>
+  </si>
+  <si>
+    <t>msDMP_01_54</t>
+  </si>
+  <si>
+    <t>msDMP_01_55</t>
+  </si>
+  <si>
+    <t>msDMP_01_56</t>
+  </si>
+  <si>
+    <t>msDMP_01_57</t>
+  </si>
+  <si>
+    <t>msDMP_01_58</t>
+  </si>
+  <si>
+    <t>msDMP_01_59</t>
+  </si>
+  <si>
+    <t>msDMP_01_60</t>
+  </si>
+  <si>
+    <t>msDMP_01_61</t>
+  </si>
+  <si>
+    <t>msDMP_01_62</t>
+  </si>
+  <si>
+    <t>msDMP_01_63</t>
+  </si>
+  <si>
+    <t>msDMP_01_64</t>
+  </si>
+  <si>
+    <t>msDMP_01_65</t>
+  </si>
+  <si>
+    <t>msDMP_01_66</t>
+  </si>
+  <si>
+    <t>msDMP_01_67</t>
+  </si>
+  <si>
+    <t>msDMP_01_68</t>
+  </si>
+  <si>
+    <t>msDMP_01_69</t>
+  </si>
+  <si>
+    <t>msDMP_01_70</t>
+  </si>
+  <si>
+    <t>msDMP_01_71</t>
+  </si>
+  <si>
+    <t>msDMP_01_72</t>
+  </si>
+  <si>
+    <t>msDMP_01_73</t>
+  </si>
+  <si>
+    <t>msDMP_01_74</t>
+  </si>
+  <si>
+    <t>msDMP_01_75</t>
+  </si>
+  <si>
+    <t>msDMP_01_76</t>
+  </si>
+  <si>
+    <t>msDMP_01_77</t>
+  </si>
+  <si>
+    <t>msDMP_01_78</t>
+  </si>
+  <si>
+    <t>msDMP_01_79</t>
+  </si>
+  <si>
+    <t>msDMP_01_80</t>
+  </si>
+  <si>
+    <t>msDMP_01_81</t>
+  </si>
+  <si>
+    <t>msDMP_01_82</t>
+  </si>
+  <si>
+    <t>msDMP_01_83</t>
+  </si>
+  <si>
+    <t>msDMP_01_84</t>
+  </si>
+  <si>
+    <t>msDMP_01_85</t>
+  </si>
+  <si>
+    <t>msDMP_01_86</t>
+  </si>
+  <si>
+    <t>msDMP_01_87</t>
+  </si>
+  <si>
+    <t>msDMP_01_88</t>
+  </si>
+  <si>
+    <t>msDMP_01_89</t>
+  </si>
+  <si>
+    <t>msDMP_01_90</t>
+  </si>
+  <si>
+    <t>msDMP_01_91</t>
+  </si>
+  <si>
+    <t>msDMP_01_92</t>
+  </si>
+  <si>
+    <t>msDMP_01_93</t>
+  </si>
+  <si>
+    <t>msDMP_01_94</t>
+  </si>
+  <si>
+    <t>msDMP_01_95</t>
+  </si>
+  <si>
+    <t>msDMP_01_96</t>
+  </si>
+  <si>
+    <t>msDMP_01_97</t>
+  </si>
+  <si>
+    <t>msDMP_01_98</t>
+  </si>
+  <si>
+    <t>msDMP_01_99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,6 +622,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -442,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -478,12 +681,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,6 +718,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,900 +1037,1900 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79934C2-20DB-E449-AFAB-CAA669F7B54D}">
-  <dimension ref="A1:Q53"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="215" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>8582</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>39</v>
       </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>112</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8582</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>39</v>
       </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="N3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="O3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="P3" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>8582</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>38</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>39</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8582</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>38</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>39</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>8582</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>37</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>38</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>39</v>
       </c>
-      <c r="M6" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>35</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>8582</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>37</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>38</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>39</v>
       </c>
-      <c r="M7" t="s">
-        <v>78</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
-      <c r="O7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>35</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>8582</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>36</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>38</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>39</v>
       </c>
-      <c r="M8" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>35</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>8582</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>36</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>39</v>
       </c>
-      <c r="M9" t="s">
-        <v>88</v>
-      </c>
-      <c r="N9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O9" t="s">
-        <v>90</v>
-      </c>
-      <c r="P9" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q9" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F10">
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
         <v>5704</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>23</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
       </c>
       <c r="J10" t="s">
         <v>47</v>
       </c>
       <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
         <v>49</v>
       </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" t="s">
-        <v>94</v>
-      </c>
-      <c r="O10" t="s">
-        <v>95</v>
-      </c>
-      <c r="P10" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="N10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
       <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
         <v>5704</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>23</v>
-      </c>
-      <c r="I11" t="s">
-        <v>48</v>
       </c>
       <c r="J11" t="s">
         <v>47</v>
       </c>
       <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
         <v>49</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>14084</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13">
+        <v>14084</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>14084</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>14084</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16">
+        <v>14084</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>14084</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="M11" t="s">
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="9">
+        <v>11160</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="9">
+        <v>11160</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="9">
+        <v>11160</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="9">
+        <v>11160</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="9">
+        <v>11160</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="9">
+        <v>11160</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s">
         <v>98</v>
       </c>
-      <c r="N11" t="s">
+      <c r="L24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" t="s">
         <v>99</v>
       </c>
-      <c r="O11" t="s">
+      <c r="N24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" t="s">
         <v>100</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="M25" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
         <v>101</v>
       </c>
-      <c r="Q11" s="8" t="s">
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>99</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="9">
-        <v>11160</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="8" t="s">
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" t="s">
+        <v>99</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
         <v>103</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="9">
-        <v>11160</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="8" t="s">
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="9">
-        <v>11160</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E34" s="3"/>
-      <c r="F34" s="4"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E35" s="3"/>
-      <c r="F35" s="4"/>
-      <c r="M35" s="2"/>
+      <c r="G34" s="10">
+        <v>88552</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F35" s="3"/>
+      <c r="G35" s="4"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E36" s="3"/>
-      <c r="F36" s="4"/>
-      <c r="M36" s="2"/>
+      <c r="P35" s="2"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F36" s="3"/>
+      <c r="G36" s="4"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E37" s="3"/>
-      <c r="F37" s="4"/>
-      <c r="M37" s="2"/>
+      <c r="P36" s="2"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F37" s="3"/>
+      <c r="G37" s="4"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E38" s="3"/>
-      <c r="F38" s="4"/>
-      <c r="M38" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F38" s="3"/>
+      <c r="G38" s="4"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E39" s="3"/>
-      <c r="F39" s="4"/>
-      <c r="M39" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F39" s="3"/>
+      <c r="G39" s="4"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E40" s="3"/>
-      <c r="F40" s="4"/>
-      <c r="M40" s="2"/>
+      <c r="P39" s="2"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F40" s="3"/>
+      <c r="G40" s="4"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E41" s="3"/>
-      <c r="F41" s="4"/>
-      <c r="M41" s="2"/>
+      <c r="P40" s="2"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F41" s="3"/>
+      <c r="G41" s="4"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E42" s="3"/>
-      <c r="F42" s="4"/>
-      <c r="M42" s="2"/>
+      <c r="P41" s="2"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F42" s="3"/>
+      <c r="G42" s="4"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="E43" s="3"/>
-      <c r="F43" s="4"/>
-      <c r="M43" s="2"/>
+      <c r="P42" s="2"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F43" s="3"/>
+      <c r="G43" s="4"/>
       <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="5"/>
+      <c r="N44" s="7"/>
       <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D45" s="5"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="5"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="2"/>
+      <c r="P44" s="2"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="5"/>
+      <c r="N45" s="7"/>
       <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="2"/>
+      <c r="P45" s="2"/>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="5"/>
+      <c r="N46" s="7"/>
       <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D47" s="5"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="5"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="5"/>
+      <c r="N47" s="7"/>
       <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D48" s="5"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="5"/>
-      <c r="M48" s="7"/>
+      <c r="P47" s="2"/>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="5"/>
       <c r="N48" s="7"/>
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D49" s="5"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="5"/>
-      <c r="M49" s="2"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="2"/>
+    </row>
+    <row r="49" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E49" s="5"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="5"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
-      <c r="M50" s="2"/>
+      <c r="P49" s="2"/>
+    </row>
+    <row r="50" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="5"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D51" s="5"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="5"/>
-      <c r="M51" s="2"/>
+      <c r="P50" s="2"/>
+    </row>
+    <row r="51" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E51" s="5"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="5"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
-      <c r="M52" s="2"/>
+      <c r="P51" s="2"/>
+    </row>
+    <row r="52" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E52" s="5"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="5"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.2">
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="5"/>
-      <c r="M53" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="E53" s="5"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="5"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R34" xr:uid="{C79934C2-20DB-E449-AFAB-CAA669F7B54D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="T4 GT7"/>
+        <filter val="T4 wt"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06867779-49FF-094A-B377-1D78198F59C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF48AA2-AF57-C640-92A5-76E8BCB6A1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34060" yWindow="780" windowWidth="33600" windowHeight="20500" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="189">
   <si>
     <t>phage</t>
   </si>
@@ -97,21 +97,57 @@
     <t>T</t>
   </si>
   <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>gene 3.5</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
+    <t>GACCGTGGAT</t>
+  </si>
+  <si>
+    <t>ATTAATTGAA</t>
+  </si>
+  <si>
+    <t>TTGCCCTTCGTTCGACCTTA</t>
+  </si>
+  <si>
+    <t>TTCGCATTGGAGGTCAAATA</t>
+  </si>
+  <si>
     <t>dexA</t>
   </si>
   <si>
+    <t>T4 wt</t>
+  </si>
+  <si>
     <t>T4 GT7</t>
   </si>
   <si>
     <t>pKDC.133</t>
   </si>
   <si>
+    <t>pKDC.144</t>
+  </si>
+  <si>
     <t>dexA_R</t>
   </si>
   <si>
+    <t>dexA_F</t>
+  </si>
+  <si>
     <t>CTTGGAAATC</t>
   </si>
   <si>
@@ -124,20 +160,458 @@
     <t>TCGCGATATTCAACGTCTTA</t>
   </si>
   <si>
+    <t>M13</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>pKDC.159</t>
+  </si>
+  <si>
+    <t>pKDC.173</t>
+  </si>
+  <si>
+    <t>ori_F</t>
+  </si>
+  <si>
+    <t>ori_R</t>
+  </si>
+  <si>
+    <t>GGGTGATGGT</t>
+  </si>
+  <si>
+    <t>AAACTTGATT</t>
+  </si>
+  <si>
+    <t>TCGGGGGCTCCCTTTAGGGT</t>
+  </si>
+  <si>
+    <t>TTCGCCCTTTGACGTTGGAG</t>
+  </si>
+  <si>
+    <t>pSBK.190</t>
+  </si>
+  <si>
+    <t>bKDC006</t>
+  </si>
+  <si>
     <t>bKDC007</t>
   </si>
   <si>
+    <t>rep1_tc</t>
+  </si>
+  <si>
+    <t>rep4_tc</t>
+  </si>
+  <si>
+    <t>msDMP_01_01</t>
+  </si>
+  <si>
+    <t>msDMP_01_02</t>
+  </si>
+  <si>
+    <t>msDMP_01_03</t>
+  </si>
+  <si>
     <t>strain</t>
   </si>
   <si>
+    <t>bKDC009</t>
+  </si>
+  <si>
+    <t>msDMP_01_04</t>
+  </si>
+  <si>
+    <t>msDMP_01_05</t>
+  </si>
+  <si>
+    <t>msDMP_01_06</t>
+  </si>
+  <si>
+    <t>msDMP_01_07</t>
+  </si>
+  <si>
+    <t>msDMP_01_08</t>
+  </si>
+  <si>
+    <t>msDMP_01_09</t>
+  </si>
+  <si>
     <t>msDMP_01_10</t>
+  </si>
+  <si>
+    <t>msDMP_01_11</t>
+  </si>
+  <si>
+    <t>msDMP_01_12</t>
+  </si>
+  <si>
+    <t>msDMP_01_13</t>
+  </si>
+  <si>
+    <t>msDMP_01_14</t>
+  </si>
+  <si>
+    <t>msDMP_01_15</t>
+  </si>
+  <si>
+    <t>msDMP_01_16</t>
+  </si>
+  <si>
+    <t>msDMP_01_17</t>
+  </si>
+  <si>
+    <t>msDMP_01_18</t>
+  </si>
+  <si>
+    <t>msDMP_01_19</t>
+  </si>
+  <si>
+    <t>msDMP_01_20</t>
+  </si>
+  <si>
+    <t>msDMP_01_21</t>
+  </si>
+  <si>
+    <t>msDMP_01_22</t>
+  </si>
+  <si>
+    <t>msDMP_01_23</t>
+  </si>
+  <si>
+    <t>msDMP_01_24</t>
+  </si>
+  <si>
+    <t>msDMP_01_25</t>
+  </si>
+  <si>
+    <t>msDMP_01_26</t>
+  </si>
+  <si>
+    <t>msDMP_01_27</t>
+  </si>
+  <si>
+    <t>msDMP_01_28</t>
+  </si>
+  <si>
+    <t>msDMP_01_29</t>
+  </si>
+  <si>
+    <t>msDMP_01_30</t>
+  </si>
+  <si>
+    <t>rep2_tc</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>pSBK.164</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>pSBK.145</t>
+  </si>
+  <si>
+    <t>lambda L tail</t>
+  </si>
+  <si>
+    <t>GTTGTAAGTT</t>
+  </si>
+  <si>
+    <t>CGCAATAACG</t>
+  </si>
+  <si>
+    <t>TATGACCAGCCAACGTCCGA</t>
+  </si>
+  <si>
+    <t>ACTTTCGCAGTAAATCCCAT</t>
+  </si>
+  <si>
+    <t>AATGATTTCA</t>
+  </si>
+  <si>
+    <t>AAATAGTAGC</t>
+  </si>
+  <si>
+    <t>CTCGTATTCTAAACCGTAAT</t>
+  </si>
+  <si>
+    <t>CTTAACTGGATATACGTTGG</t>
+  </si>
+  <si>
+    <t>pb3</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.135</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.136</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.137</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.138</t>
+  </si>
+  <si>
+    <t>bKDC010 + pKDC.139</t>
+  </si>
+  <si>
+    <t>pb3_TAA_TGA</t>
+  </si>
+  <si>
+    <t>msDMP_01_31</t>
+  </si>
+  <si>
+    <t>msDMP_01_32</t>
+  </si>
+  <si>
+    <t>msDMP_01_33</t>
+  </si>
+  <si>
+    <t>msDMP_01_34</t>
+  </si>
+  <si>
+    <t>msDMP_01_35</t>
+  </si>
+  <si>
+    <t>msDMP_01_36</t>
+  </si>
+  <si>
+    <t>msDMP_01_37</t>
+  </si>
+  <si>
+    <t>msDMP_01_38</t>
+  </si>
+  <si>
+    <t>msDMP_01_39</t>
+  </si>
+  <si>
+    <t>msDMP_01_40</t>
+  </si>
+  <si>
+    <t>msDMP_01_41</t>
+  </si>
+  <si>
+    <t>msDMP_01_42</t>
+  </si>
+  <si>
+    <t>msDMP_01_43</t>
+  </si>
+  <si>
+    <t>msDMP_01_44</t>
+  </si>
+  <si>
+    <t>msDMP_01_45</t>
+  </si>
+  <si>
+    <t>msDMP_01_46</t>
+  </si>
+  <si>
+    <t>msDMP_01_47</t>
+  </si>
+  <si>
+    <t>msDMP_01_48</t>
+  </si>
+  <si>
+    <t>msDMP_01_49</t>
+  </si>
+  <si>
+    <t>msDMP_01_50</t>
+  </si>
+  <si>
+    <t>msDMP_01_51</t>
+  </si>
+  <si>
+    <t>msDMP_01_52</t>
+  </si>
+  <si>
+    <t>msDMP_01_53</t>
+  </si>
+  <si>
+    <t>msDMP_01_54</t>
+  </si>
+  <si>
+    <t>msDMP_01_55</t>
+  </si>
+  <si>
+    <t>msDMP_01_56</t>
+  </si>
+  <si>
+    <t>msDMP_01_57</t>
+  </si>
+  <si>
+    <t>msDMP_01_58</t>
+  </si>
+  <si>
+    <t>msDMP_01_59</t>
+  </si>
+  <si>
+    <t>msDMP_01_60</t>
+  </si>
+  <si>
+    <t>msDMP_01_61</t>
+  </si>
+  <si>
+    <t>msDMP_01_62</t>
+  </si>
+  <si>
+    <t>msDMP_01_63</t>
+  </si>
+  <si>
+    <t>msDMP_01_64</t>
+  </si>
+  <si>
+    <t>msDMP_01_65</t>
+  </si>
+  <si>
+    <t>msDMP_01_66</t>
+  </si>
+  <si>
+    <t>msDMP_01_67</t>
+  </si>
+  <si>
+    <t>msDMP_01_68</t>
+  </si>
+  <si>
+    <t>msDMP_01_69</t>
+  </si>
+  <si>
+    <t>msDMP_01_70</t>
+  </si>
+  <si>
+    <t>msDMP_01_71</t>
+  </si>
+  <si>
+    <t>msDMP_01_72</t>
+  </si>
+  <si>
+    <t>msDMP_01_73</t>
+  </si>
+  <si>
+    <t>msDMP_01_74</t>
+  </si>
+  <si>
+    <t>msDMP_01_75</t>
+  </si>
+  <si>
+    <t>msDMP_01_76</t>
+  </si>
+  <si>
+    <t>msDMP_01_77</t>
+  </si>
+  <si>
+    <t>msDMP_01_78</t>
+  </si>
+  <si>
+    <t>msDMP_01_79</t>
+  </si>
+  <si>
+    <t>msDMP_01_80</t>
+  </si>
+  <si>
+    <t>msDMP_01_81</t>
+  </si>
+  <si>
+    <t>msDMP_01_82</t>
+  </si>
+  <si>
+    <t>msDMP_01_83</t>
+  </si>
+  <si>
+    <t>msDMP_01_84</t>
+  </si>
+  <si>
+    <t>msDMP_01_85</t>
+  </si>
+  <si>
+    <t>msDMP_01_86</t>
+  </si>
+  <si>
+    <t>msDMP_01_87</t>
+  </si>
+  <si>
+    <t>msDMP_01_88</t>
+  </si>
+  <si>
+    <t>msDMP_01_89</t>
+  </si>
+  <si>
+    <t>msDMP_01_90</t>
+  </si>
+  <si>
+    <t>msDMP_01_91</t>
+  </si>
+  <si>
+    <t>msDMP_01_92</t>
+  </si>
+  <si>
+    <t>msDMP_01_93</t>
+  </si>
+  <si>
+    <t>msDMP_01_94</t>
+  </si>
+  <si>
+    <t>msDMP_01_95</t>
+  </si>
+  <si>
+    <t>msDMP_01_96</t>
+  </si>
+  <si>
+    <t>msDMP_01_97</t>
+  </si>
+  <si>
+    <t>msDMP_01_98</t>
+  </si>
+  <si>
+    <t>msDMP_01_99</t>
+  </si>
+  <si>
+    <t>msDMP_01_101</t>
+  </si>
+  <si>
+    <t>msDMP_01_104</t>
+  </si>
+  <si>
+    <t>msDMP_01_107</t>
+  </si>
+  <si>
+    <t>rep1_epi</t>
+  </si>
+  <si>
+    <t>rep2_epi</t>
+  </si>
+  <si>
+    <t>rep4_epi</t>
+  </si>
+  <si>
+    <t>msDMP_01_178</t>
+  </si>
+  <si>
+    <t>msDMP_01_179</t>
+  </si>
+  <si>
+    <t>msDMP_01_180</t>
+  </si>
+  <si>
+    <t>msDMP_01_181</t>
+  </si>
+  <si>
+    <t>msDMP_01_182</t>
+  </si>
+  <si>
+    <t>msDMP_01_183</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,12 +626,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -166,13 +634,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -222,7 +683,9 @@
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
       <bottom style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </bottom>
@@ -235,38 +698,29 @@
       <right style="thin">
         <color theme="0" tint="-0.249977111117893"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79934C2-20DB-E449-AFAB-CAA669F7B54D}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="138" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,80 +1053,80 @@
     <col min="17" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>8582</v>
@@ -684,170 +1138,1782 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" t="s">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>8582</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>8582</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>8582</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>8582</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>8582</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <v>8582</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>8582</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10">
+        <v>5704</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>5704</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12">
+        <v>14084</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13">
+        <v>14084</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M13" t="s">
+        <v>96</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>14084</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" t="s">
+        <v>95</v>
+      </c>
+      <c r="M14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>14084</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16">
+        <v>14084</v>
+      </c>
+      <c r="H16" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M16" t="s">
+        <v>96</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17">
+        <v>14084</v>
+      </c>
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L17" t="s">
+        <v>95</v>
+      </c>
+      <c r="M17" t="s">
+        <v>96</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="4">
+        <v>11160</v>
+      </c>
+      <c r="H18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="s">
+      <c r="K18" t="s">
         <v>26</v>
       </c>
-      <c r="M2" t="s">
+      <c r="L18" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.2">
-      <c r="E21" s="5"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11160</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="4">
+        <v>11160</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="4">
+        <v>11160</v>
+      </c>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="4">
+        <v>11160</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="4">
+        <v>11160</v>
+      </c>
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" t="s">
+        <v>97</v>
+      </c>
+      <c r="K24" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" t="s">
+        <v>100</v>
+      </c>
+      <c r="M24" t="s">
+        <v>99</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>97</v>
+      </c>
+      <c r="K25" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" t="s">
+        <v>100</v>
+      </c>
+      <c r="M25" t="s">
+        <v>99</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>97</v>
+      </c>
+      <c r="K26" t="s">
+        <v>98</v>
+      </c>
+      <c r="L26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M26" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>97</v>
+      </c>
+      <c r="K27" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" t="s">
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>99</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" t="s">
+        <v>97</v>
+      </c>
+      <c r="K28" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" t="s">
+        <v>100</v>
+      </c>
+      <c r="M28" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" t="s">
+        <v>97</v>
+      </c>
+      <c r="K29" t="s">
+        <v>98</v>
+      </c>
+      <c r="L29" t="s">
+        <v>100</v>
+      </c>
+      <c r="M29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M30" t="s">
+        <v>99</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" t="s">
+        <v>98</v>
+      </c>
+      <c r="L31" t="s">
+        <v>100</v>
+      </c>
+      <c r="M31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>97</v>
+      </c>
+      <c r="K33" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" s="5">
+        <v>88552</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>97</v>
+      </c>
+      <c r="K34" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="4">
+        <v>11160</v>
+      </c>
+      <c r="H35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>27</v>
+      </c>
+      <c r="M35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36" s="4">
+        <v>11160</v>
+      </c>
+      <c r="H36" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>27</v>
+      </c>
+      <c r="M36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F37" t="s">
+        <v>182</v>
+      </c>
+      <c r="G37" s="4">
+        <v>11160</v>
+      </c>
+      <c r="H37" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" t="s">
+        <v>28</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:R2" xr:uid="{C79934C2-20DB-E449-AFAB-CAA669F7B54D}"/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67660BE0-95FF-544A-9788-3B078A736CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE026F4-58D0-FD4D-B147-B5205EA6CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
@@ -609,11 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79934C2-20DB-E449-AFAB-CAA669F7B54D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:E16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -742,7 +741,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -771,7 +770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
@@ -800,7 +799,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -829,7 +828,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -916,7 +915,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -945,7 +944,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -974,7 +973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -1177,25 +1176,17 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U21" xr:uid="{C79934C2-20DB-E449-AFAB-CAA669F7B54D}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="165"/>
-        <filter val="166"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE026F4-58D0-FD4D-B147-B5205EA6CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC40BD2-C83A-9040-BEAA-9C5CCCA7ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>wt_nt</t>
   </si>
   <si>
-    <t>edited_nt</t>
-  </si>
-  <si>
     <t>L_inside</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>GGACACATGG</t>
+  </si>
+  <si>
+    <t>edit_nt</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,10 +627,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -639,541 +639,541 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="5">
         <v>156</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C3" s="5">
         <v>165</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="5">
         <v>166</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="5">
         <v>167</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="5">
         <v>168</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>169</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="5">
         <v>156</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="5">
         <v>165</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="5">
         <v>166</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="5">
         <v>167</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="5">
         <v>168</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="5">
         <v>169</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="5">
         <v>156</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="5">
         <v>165</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="5">
         <v>166</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="5">
         <v>167</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="5">
         <v>168</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="5">
         <v>169</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">

--- a/file_key.xlsx
+++ b/file_key.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katecrawford/Documents/GitHub/multi_edit_phage/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC40BD2-C83A-9040-BEAA-9C5CCCA7ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB611E3-E4BD-3D43-BAA7-E1123CBF302C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{5092B66F-C68F-3B49-A10E-6D9E2CEABAC1}"/>
   </bookViews>
@@ -64,9 +64,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>file_name</t>
-  </si>
-  <si>
     <t>info</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>edit_nt</t>
+  </si>
+  <si>
+    <t>run_id</t>
   </si>
 </sst>
 </file>
@@ -611,9 +611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79934C2-20DB-E449-AFAB-CAA669F7B54D}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="138" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -627,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -639,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -656,10 +654,10 @@
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
       </c>
       <c r="C2" s="5">
         <v>156</v>
@@ -671,24 +669,24 @@
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="5">
         <v>165</v>
@@ -700,24 +698,24 @@
         <v>6</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="5">
         <v>166</v>
@@ -729,24 +727,24 @@
         <v>6</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="5">
         <v>167</v>
@@ -758,24 +756,24 @@
         <v>7</v>
       </c>
       <c r="F5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="C6" s="5">
         <v>168</v>
@@ -787,24 +785,24 @@
         <v>7</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="5">
         <v>169</v>
@@ -816,24 +814,24 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="5">
         <v>156</v>
@@ -845,24 +843,24 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="C9" s="5">
         <v>165</v>
@@ -874,24 +872,24 @@
         <v>6</v>
       </c>
       <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="5">
         <v>166</v>
@@ -903,24 +901,24 @@
         <v>6</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="5">
         <v>167</v>
@@ -932,24 +930,24 @@
         <v>7</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="5">
         <v>168</v>
@@ -961,24 +959,24 @@
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H12" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C13" s="5">
         <v>169</v>
@@ -990,24 +988,24 @@
         <v>7</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C14" s="5">
         <v>156</v>
@@ -1019,24 +1017,24 @@
         <v>7</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="C15" s="5">
         <v>165</v>
@@ -1048,24 +1046,24 @@
         <v>6</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="5">
         <v>166</v>
@@ -1077,24 +1075,24 @@
         <v>6</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="H16" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C17" s="5">
         <v>167</v>
@@ -1106,24 +1104,24 @@
         <v>7</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="C18" s="5">
         <v>168</v>
@@ -1135,24 +1133,24 @@
         <v>7</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H18" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="C19" s="5">
         <v>169</v>
@@ -1164,16 +1162,16 @@
         <v>7</v>
       </c>
       <c r="F19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>49</v>
-      </c>
       <c r="H19" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
